--- a/code/master/loc_grand_name.xlsx
+++ b/code/master/loc_grand_name.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/CovidLongitudinal-main/code/master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Documents/GitHub/CovidLongitudinal/code/master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C0F2AF-99CA-674B-BAC6-CF7BB36C256E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0D936B-D5DB-A94B-9318-A7D191AE1B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="660" windowWidth="25040" windowHeight="13840" xr2:uid="{85FFEFC8-11F6-A040-BB5F-D0996E2B61CA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="569">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -1832,7 +1832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1858,6 +1858,9 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6986,32 +6989,42 @@
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C83" s="7">
-        <v>74</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C83" s="15"/>
+      <c r="D83" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" t="s">
+      <c r="F83" s="3"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="T83" s="11" t="s">
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="U83">
+      <c r="U83" s="3">
         <v>1</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
@@ -7021,8 +7034,8 @@
       <c r="B84" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="7">
-        <v>75</v>
+      <c r="C84" s="19">
+        <v>74</v>
       </c>
       <c r="D84" t="s">
         <v>370</v>
@@ -7133,8 +7146,8 @@
       <c r="B86" t="s">
         <v>66</v>
       </c>
-      <c r="C86" s="7">
-        <v>76</v>
+      <c r="C86" s="19">
+        <v>75</v>
       </c>
       <c r="D86" t="s">
         <v>372</v>
@@ -7196,7 +7209,7 @@
         <v>67</v>
       </c>
       <c r="C87" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D87" t="s">
         <v>373</v>
@@ -7258,7 +7271,7 @@
         <v>68</v>
       </c>
       <c r="C88" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D88" t="s">
         <v>374</v>
@@ -7323,7 +7336,7 @@
         <v>69</v>
       </c>
       <c r="C89" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D89" t="s">
         <v>375</v>
@@ -7388,7 +7401,7 @@
         <v>70</v>
       </c>
       <c r="C90" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D90" t="s">
         <v>376</v>
@@ -7453,7 +7466,7 @@
         <v>71</v>
       </c>
       <c r="C91" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D91" t="s">
         <v>377</v>
@@ -7512,7 +7525,7 @@
         <v>72</v>
       </c>
       <c r="C92" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D92" t="s">
         <v>378</v>
@@ -7574,7 +7587,7 @@
         <v>73</v>
       </c>
       <c r="C93" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D93" t="s">
         <v>379</v>
@@ -7636,7 +7649,7 @@
         <v>74</v>
       </c>
       <c r="C94" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D94" t="s">
         <v>380</v>
@@ -7701,7 +7714,7 @@
         <v>75</v>
       </c>
       <c r="C95" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D95" t="s">
         <v>381</v>
@@ -7760,7 +7773,7 @@
         <v>76</v>
       </c>
       <c r="C96" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D96" t="s">
         <v>382</v>
@@ -7822,7 +7835,7 @@
         <v>77</v>
       </c>
       <c r="C97" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D97" t="s">
         <v>383</v>
@@ -7881,7 +7894,7 @@
         <v>78</v>
       </c>
       <c r="C98" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D98" t="s">
         <v>384</v>
@@ -7940,7 +7953,7 @@
         <v>79</v>
       </c>
       <c r="C99" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D99" t="s">
         <v>385</v>
@@ -7999,7 +8012,7 @@
         <v>188</v>
       </c>
       <c r="C100" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D100" t="s">
         <v>386</v>
@@ -8046,7 +8059,7 @@
         <v>285</v>
       </c>
       <c r="C101" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D101" t="s">
         <v>387</v>
@@ -8093,7 +8106,7 @@
         <v>286</v>
       </c>
       <c r="C102" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" t="s">
         <v>388</v>
@@ -8155,7 +8168,7 @@
         <v>81</v>
       </c>
       <c r="C103" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D103" t="s">
         <v>389</v>
@@ -8193,7 +8206,7 @@
         <v>82</v>
       </c>
       <c r="C104" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D104" t="s">
         <v>390</v>
@@ -8255,7 +8268,7 @@
         <v>191</v>
       </c>
       <c r="C105" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D105" t="s">
         <v>391</v>
@@ -8311,7 +8324,7 @@
         <v>253</v>
       </c>
       <c r="C106" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D106" t="s">
         <v>392</v>
@@ -8361,7 +8374,7 @@
         <v>83</v>
       </c>
       <c r="C107" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D107" t="s">
         <v>393</v>
@@ -8423,7 +8436,7 @@
         <v>84</v>
       </c>
       <c r="C108" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D108" t="s">
         <v>394</v>
@@ -8482,7 +8495,7 @@
         <v>85</v>
       </c>
       <c r="C109" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D109" t="s">
         <v>395</v>
@@ -8538,7 +8551,7 @@
         <v>86</v>
       </c>
       <c r="C110" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D110" t="s">
         <v>396</v>
@@ -8597,7 +8610,7 @@
         <v>87</v>
       </c>
       <c r="C111" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D111" t="s">
         <v>397</v>
@@ -8656,7 +8669,7 @@
         <v>88</v>
       </c>
       <c r="C112" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D112" t="s">
         <v>398</v>
@@ -8694,7 +8707,7 @@
         <v>89</v>
       </c>
       <c r="C113" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
         <v>399</v>
@@ -8756,7 +8769,7 @@
         <v>90</v>
       </c>
       <c r="C114" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
         <v>400</v>
@@ -8868,7 +8881,7 @@
         <v>91</v>
       </c>
       <c r="C116" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D116" t="s">
         <v>402</v>
@@ -8927,7 +8940,7 @@
         <v>92</v>
       </c>
       <c r="C117" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D117" t="s">
         <v>403</v>
@@ -8986,7 +8999,7 @@
         <v>93</v>
       </c>
       <c r="C118" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D118" t="s">
         <v>404</v>
@@ -9048,7 +9061,7 @@
         <v>94</v>
       </c>
       <c r="C119" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D119" t="s">
         <v>405</v>
@@ -9107,7 +9120,7 @@
         <v>95</v>
       </c>
       <c r="C120" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D120" t="s">
         <v>406</v>
@@ -9166,7 +9179,7 @@
         <v>96</v>
       </c>
       <c r="C121" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D121" t="s">
         <v>407</v>
@@ -9310,7 +9323,7 @@
         <v>97</v>
       </c>
       <c r="C124" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D124" t="s">
         <v>410</v>
@@ -9369,7 +9382,7 @@
         <v>98</v>
       </c>
       <c r="C125" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D125" t="s">
         <v>411</v>
@@ -9428,7 +9441,7 @@
         <v>99</v>
       </c>
       <c r="C126" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D126" t="s">
         <v>412</v>
@@ -9493,7 +9506,7 @@
         <v>233</v>
       </c>
       <c r="C127" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D127" t="s">
         <v>413</v>
@@ -9540,7 +9553,7 @@
         <v>100</v>
       </c>
       <c r="C128" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D128" t="s">
         <v>414</v>
@@ -9602,7 +9615,7 @@
         <v>101</v>
       </c>
       <c r="C129" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D129" t="s">
         <v>415</v>
@@ -9640,7 +9653,7 @@
         <v>102</v>
       </c>
       <c r="C130" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D130" t="s">
         <v>416</v>
@@ -9699,7 +9712,7 @@
         <v>103</v>
       </c>
       <c r="C131" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D131" t="s">
         <v>417</v>
@@ -9758,7 +9771,7 @@
         <v>104</v>
       </c>
       <c r="C132" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D132" t="s">
         <v>418</v>
@@ -9820,7 +9833,7 @@
         <v>105</v>
       </c>
       <c r="C133" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D133" t="s">
         <v>419</v>
@@ -9913,7 +9926,7 @@
         <v>196</v>
       </c>
       <c r="C135" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D135" t="s">
         <v>420</v>
@@ -9969,7 +9982,7 @@
         <v>106</v>
       </c>
       <c r="C136" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D136" t="s">
         <v>421</v>
@@ -10028,7 +10041,7 @@
         <v>107</v>
       </c>
       <c r="C137" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D137" t="s">
         <v>422</v>
@@ -10087,7 +10100,7 @@
         <v>108</v>
       </c>
       <c r="C138" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D138" t="s">
         <v>423</v>
@@ -10197,7 +10210,7 @@
         <v>109</v>
       </c>
       <c r="C140" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D140" t="s">
         <v>425</v>
@@ -10256,7 +10269,7 @@
         <v>110</v>
       </c>
       <c r="C141" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D141" t="s">
         <v>426</v>
@@ -10315,7 +10328,7 @@
         <v>111</v>
       </c>
       <c r="C142" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D142" t="s">
         <v>427</v>
@@ -10374,7 +10387,7 @@
         <v>112</v>
       </c>
       <c r="C143" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D143" t="s">
         <v>428</v>
@@ -10436,7 +10449,7 @@
         <v>113</v>
       </c>
       <c r="C144" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D144" t="s">
         <v>429</v>
@@ -10495,7 +10508,7 @@
         <v>114</v>
       </c>
       <c r="C145" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D145" t="s">
         <v>430</v>
@@ -10557,7 +10570,7 @@
         <v>115</v>
       </c>
       <c r="C146" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D146" t="s">
         <v>431</v>
@@ -10616,7 +10629,7 @@
         <v>116</v>
       </c>
       <c r="C147" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D147" t="s">
         <v>432</v>
@@ -10681,7 +10694,7 @@
         <v>198</v>
       </c>
       <c r="C148" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D148" t="s">
         <v>434</v>
@@ -10773,7 +10786,7 @@
         <v>117</v>
       </c>
       <c r="C150" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D150" t="s">
         <v>435</v>
@@ -10835,7 +10848,7 @@
         <v>118</v>
       </c>
       <c r="C151" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D151" t="s">
         <v>436</v>
@@ -10894,7 +10907,7 @@
         <v>119</v>
       </c>
       <c r="C152" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D152" t="s">
         <v>437</v>
@@ -10953,7 +10966,7 @@
         <v>120</v>
       </c>
       <c r="C153" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D153" t="s">
         <v>438</v>
@@ -11018,7 +11031,7 @@
         <v>121</v>
       </c>
       <c r="C154" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D154" t="s">
         <v>439</v>
@@ -11080,7 +11093,7 @@
         <v>122</v>
       </c>
       <c r="C155" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D155" t="s">
         <v>440</v>
@@ -11142,7 +11155,7 @@
         <v>123</v>
       </c>
       <c r="C156" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D156" t="s">
         <v>441</v>
@@ -11252,7 +11265,7 @@
         <v>124</v>
       </c>
       <c r="C158" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D158" t="s">
         <v>443</v>
@@ -11360,7 +11373,7 @@
         <v>125</v>
       </c>
       <c r="C160" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D160" t="s">
         <v>445</v>
@@ -11422,7 +11435,7 @@
         <v>126</v>
       </c>
       <c r="C161" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D161" t="s">
         <v>446</v>
@@ -11487,7 +11500,7 @@
         <v>127</v>
       </c>
       <c r="C162" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D162" t="s">
         <v>447</v>
@@ -11546,7 +11559,7 @@
         <v>202</v>
       </c>
       <c r="C163" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D163" t="s">
         <v>448</v>
@@ -11593,7 +11606,7 @@
         <v>203</v>
       </c>
       <c r="C164" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D164" t="s">
         <v>449</v>
@@ -11646,7 +11659,7 @@
         <v>204</v>
       </c>
       <c r="C165" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D165" t="s">
         <v>450</v>
@@ -11696,7 +11709,7 @@
         <v>205</v>
       </c>
       <c r="C166" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D166" t="s">
         <v>451</v>
@@ -11743,7 +11756,7 @@
         <v>128</v>
       </c>
       <c r="C167" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D167" t="s">
         <v>452</v>
@@ -11799,7 +11812,7 @@
         <v>129</v>
       </c>
       <c r="C168" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D168" t="s">
         <v>453</v>
@@ -11858,7 +11871,7 @@
         <v>130</v>
       </c>
       <c r="C169" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D169" t="s">
         <v>454</v>
@@ -11923,7 +11936,7 @@
         <v>131</v>
       </c>
       <c r="C170" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D170" t="s">
         <v>455</v>
@@ -11982,7 +11995,7 @@
         <v>132</v>
       </c>
       <c r="C171" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D171" t="s">
         <v>456</v>
@@ -12044,7 +12057,7 @@
         <v>133</v>
       </c>
       <c r="C172" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D172" t="s">
         <v>457</v>
@@ -12097,7 +12110,7 @@
         <v>134</v>
       </c>
       <c r="C173" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D173" t="s">
         <v>458</v>
@@ -12156,7 +12169,7 @@
         <v>135</v>
       </c>
       <c r="C174" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D174" t="s">
         <v>459</v>
@@ -12261,7 +12274,7 @@
         <v>136</v>
       </c>
       <c r="C176" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D176" t="s">
         <v>461</v>
@@ -12323,7 +12336,7 @@
         <v>137</v>
       </c>
       <c r="C177" s="7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D177" t="s">
         <v>462</v>
@@ -12385,7 +12398,7 @@
         <v>207</v>
       </c>
       <c r="C178" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D178" t="s">
         <v>463</v>
@@ -12432,7 +12445,7 @@
         <v>138</v>
       </c>
       <c r="C179" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D179" t="s">
         <v>464</v>
@@ -12491,7 +12504,7 @@
         <v>139</v>
       </c>
       <c r="C180" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D180" t="s">
         <v>465</v>
@@ -12556,7 +12569,7 @@
         <v>140</v>
       </c>
       <c r="C181" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D181" t="s">
         <v>466</v>
@@ -12615,7 +12628,7 @@
         <v>141</v>
       </c>
       <c r="C182" s="7">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D182" t="s">
         <v>467</v>
@@ -12680,7 +12693,7 @@
         <v>142</v>
       </c>
       <c r="C183" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D183" t="s">
         <v>468</v>
@@ -12739,7 +12752,7 @@
         <v>143</v>
       </c>
       <c r="C184" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D184" t="s">
         <v>469</v>
@@ -12830,7 +12843,7 @@
         <v>144</v>
       </c>
       <c r="C186" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D186" t="s">
         <v>470</v>
@@ -12889,7 +12902,7 @@
         <v>145</v>
       </c>
       <c r="C187" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D187" t="s">
         <v>471</v>
@@ -12954,7 +12967,7 @@
         <v>146</v>
       </c>
       <c r="C188" s="7">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D188" t="s">
         <v>472</v>
@@ -13016,7 +13029,7 @@
         <v>240</v>
       </c>
       <c r="C189" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D189" t="s">
         <v>473</v>
@@ -13072,7 +13085,7 @@
         <v>147</v>
       </c>
       <c r="C190" s="7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D190" t="s">
         <v>475</v>
@@ -13128,7 +13141,7 @@
         <v>241</v>
       </c>
       <c r="C191" s="7">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D191" t="s">
         <v>474</v>
@@ -13166,7 +13179,7 @@
         <v>148</v>
       </c>
       <c r="C192" s="7">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D192" t="s">
         <v>476</v>
@@ -13222,7 +13235,7 @@
         <v>149</v>
       </c>
       <c r="C193" s="7">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D193" t="s">
         <v>477</v>
@@ -13281,7 +13294,7 @@
         <v>287</v>
       </c>
       <c r="C194" s="7">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D194" t="s">
         <v>478</v>
@@ -13334,7 +13347,7 @@
         <v>150</v>
       </c>
       <c r="C195" s="7">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D195" t="s">
         <v>479</v>
@@ -13393,7 +13406,7 @@
         <v>212</v>
       </c>
       <c r="C196" s="7">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D196" t="s">
         <v>480</v>
@@ -13440,7 +13453,7 @@
         <v>151</v>
       </c>
       <c r="C197" s="7">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D197" t="s">
         <v>481</v>
@@ -13499,7 +13512,7 @@
         <v>152</v>
       </c>
       <c r="C198" s="7">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D198" t="s">
         <v>482</v>
@@ -13558,7 +13571,7 @@
         <v>153</v>
       </c>
       <c r="C199" s="7">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D199" t="s">
         <v>483</v>
@@ -13763,7 +13776,7 @@
         <v>155</v>
       </c>
       <c r="C203" s="7">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D203" t="s">
         <v>487</v>
@@ -13822,7 +13835,7 @@
         <v>156</v>
       </c>
       <c r="C204" s="7">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D204" t="s">
         <v>488</v>
@@ -13884,7 +13897,7 @@
         <v>157</v>
       </c>
       <c r="C205" s="7">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D205" t="s">
         <v>489</v>
@@ -13949,7 +13962,7 @@
         <v>158</v>
       </c>
       <c r="C206" s="7">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D206" t="s">
         <v>490</v>
@@ -14014,7 +14027,7 @@
         <v>216</v>
       </c>
       <c r="C207" s="7">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D207" t="s">
         <v>491</v>
@@ -14127,7 +14140,7 @@
         <v>159</v>
       </c>
       <c r="C209" s="7">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D209" t="s">
         <v>493</v>
@@ -14186,7 +14199,7 @@
         <v>160</v>
       </c>
       <c r="C210" s="7">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D210" t="s">
         <v>494</v>
@@ -14245,7 +14258,7 @@
         <v>218</v>
       </c>
       <c r="C211" s="7">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D211" t="s">
         <v>495</v>
@@ -14292,7 +14305,7 @@
         <v>161</v>
       </c>
       <c r="C212" s="7">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D212" t="s">
         <v>496</v>
@@ -14351,7 +14364,7 @@
         <v>220</v>
       </c>
       <c r="C213" s="7">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D213" t="s">
         <v>497</v>
@@ -14490,7 +14503,7 @@
         <v>163</v>
       </c>
       <c r="C216" s="7">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D216" t="s">
         <v>499</v>
@@ -14549,7 +14562,7 @@
         <v>164</v>
       </c>
       <c r="C217" s="7">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D217" t="s">
         <v>500</v>
@@ -14608,7 +14621,7 @@
         <v>165</v>
       </c>
       <c r="C218" s="7">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D218" t="s">
         <v>501</v>
